--- a/biology/Botanique/Prunus_×yedoensis/Prunus_×yedoensis.xlsx
+++ b/biology/Botanique/Prunus_×yedoensis/Prunus_×yedoensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97yedoensis</t>
+          <t>Prunus_×yedoensis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Prunus ×yedoensis, appelé communément cerisier Yoshino (染井吉野, Somei-Yoshino?), est une espèce de plantes à fleurs de la famille des Rosaceae.
-Ce cerisier à fleurs du Japon serait un hybride entre Prunus lannesiana var. speciosa et Prunus subhirtella var. pendula[1] et aurait été créé vers 1720 dans la région de Edo (Tokyo).
-Il est différent du taxon natif à la Corée[2].
+Ce cerisier à fleurs du Japon serait un hybride entre Prunus lannesiana var. speciosa et Prunus subhirtella var. pendula et aurait été créé vers 1720 dans la région de Edo (Tokyo).
+Il est différent du taxon natif à la Corée.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97yedoensis</t>
+          <t>Prunus_×yedoensis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre ornemental de 10 à 15 m de haut, à croissance rapide et à floraison printanière (début avril en climat tempéré).
 Son écorce est gris clair.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97yedoensis</t>
+          <t>Prunus_×yedoensis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cerisier Yoshino est un arbre de croissance rapide. Il préfère le plein soleil et un sol bien drainé, plutôt acide. Il est sensible à la sécheresse.
 Cet hybride non fertile est multiplié de façon végétative.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97yedoensis</t>
+          <t>Prunus_×yedoensis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,10 +596,12 @@
           <t>Sakura et Hanami</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Japonais célèbrent la floraison des cerisiers à fleurs (sakura) lors de manifestations appelées Hanami.
-Prunus ×yedoensis est le cerisier ornemental le plus apprécié et cultivé au Japon. Présent sur tout l'archipel, à l'exception de la Préfecture d'Okinawa au climat subtropical, c'est le cerisier utilisé par les météorologistes japonais pour indiquer le front de floraison des cerisiers[3].
+Prunus ×yedoensis est le cerisier ornemental le plus apprécié et cultivé au Japon. Présent sur tout l'archipel, à l'exception de la Préfecture d'Okinawa au climat subtropical, c'est le cerisier utilisé par les météorologistes japonais pour indiquer le front de floraison des cerisiers.
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97yedoensis</t>
+          <t>Prunus_×yedoensis</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,9 +630,11 @@
           <t>Uniformité génétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'uniformité génétique de Prunus ×yedoensis implique que la date de floraison n'est que peu influencée par de possibles variations génétiques, mais principalement par les conditions climatiques[4]. Cette uniformité génétique s'explique par le fait que presque tous les Prunus ×yedoensis du Japon seraient issus par multiplication végétative d'un seul et unique croisement qui aurait été effectué au début du XVIIIe s.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'uniformité génétique de Prunus ×yedoensis implique que la date de floraison n'est que peu influencée par de possibles variations génétiques, mais principalement par les conditions climatiques. Cette uniformité génétique s'explique par le fait que presque tous les Prunus ×yedoensis du Japon seraient issus par multiplication végétative d'un seul et unique croisement qui aurait été effectué au début du XVIIIe s.
 Les plantes à faible variabilité génétique comme Prunus ×yedoensis intéressent les spécialistes de la climatologie.
 </t>
         </is>
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Prunus_%C3%97yedoensis</t>
+          <t>Prunus_×yedoensis</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,9 +664,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 avr. 2012)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 avr. 2012) :
 sous-espèce Prunus ×yedoensis f. mishimazakura
 sous-espèce Prunus ×yedoensis f. nudiflora
 sous-espèce Prunus ×yedoensis f. shojo
